--- a/scripts/test-files/test-file.xlsx
+++ b/scripts/test-files/test-file.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Board Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,48 +424,2728 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>license_number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>board_code</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>value</t>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>status</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
+          <t>LIC-810977</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>IL-RN</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ana Martinez</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bob</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>200</v>
+          <t>LIC-990998</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NY-LPN</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Miguel Sanchez</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LIC-463442</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FL-RN</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>David Morales</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LIC-865845</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>GA-LPN</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Paula Gutierrez</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LIC-871514</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NY-LPN</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>David Morales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>renewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-02-14</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LIC-200740</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CA-LPN</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Valentina Cruz</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LIC-226814</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NC-LPN</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Roberto Mendoza</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LIC-229720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MI-LPN</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Camila Ortiz</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LIC-222756</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CA-RN</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Roberto Mendoza</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LIC-630612</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NC-LPN</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fernando Reyes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LIC-554322</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NY-LPN</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Camila Ortiz</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-02-18</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>LIC-124932</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NY-LPN</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Andres Vargas</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LIC-496680</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NY-LPN</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Laura Diaz</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>LIC-420865</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CA-RN</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Isabella Flores</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>LIC-707129</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>FL-LPN</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Carlos Lopez</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>LIC-412046</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NY-LPN</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Sofia Hernandez</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>LIC-583326</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NC-LPN</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Maria Garcia</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-06-15</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>LIC-334059</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>FL-LPN</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Maria Garcia</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>LIC-271220</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>FL-RN</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Laura Diaz</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>LIC-472441</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>TX-LPN</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Laura Diaz</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>LIC-366608</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MI-RN</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Paula Gutierrez</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>LIC-407562</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NC-LPN</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Isabella Flores</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-09-22</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LIC-960978</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PA-LPN</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Lucia Romero</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LIC-579994</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>FL-RN</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Sofia Hernandez</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>LIC-144040</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NC-LPN</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Laura Diaz</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>LIC-677660</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>TX-LPN</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Miguel Sanchez</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>LIC-635002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PA-RN</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Alejandro Ruiz</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>LIC-582983</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>FL-RN</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Carlos Lopez</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>renewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>LIC-347580</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>IL-RN</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Pedro Ramirez</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>renewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>LIC-101503</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>GA-LPN</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Sofia Hernandez</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>LIC-317800</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NY-RN</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Andres Vargas</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>renewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-10-05</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>LIC-987300</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CA-RN</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Lucia Romero</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>renewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>LIC-924120</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>GA-LPN</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Camila Ortiz</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LIC-859176</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>GA-LPN</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Diego Castillo</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>renewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>LIC-122099</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MI-RN</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Roberto Mendoza</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>LIC-534889</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PA-LPN</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Valentina Cruz</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>LIC-827124</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CA-LPN</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Paula Gutierrez</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>LIC-166559</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PA-RN</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Fernando Reyes</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>LIC-214720</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NC-LPN</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Carlos Lopez</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>LIC-194841</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NC-LPN</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Fernando Reyes</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-08-24</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>LIC-530575</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NY-RN</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Lucia Romero</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>LIC-729927</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CA-RN</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Elena Rodriguez</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>LIC-314929</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NY-RN</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Andres Vargas</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>LIC-543877</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MI-RN</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Pedro Ramirez</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>suspended</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-07-05</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>LIC-536234</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>TX-RN</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Paula Gutierrez</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-11-23</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LIC-906088</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CA-LPN</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Laura Diaz</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LIC-398826</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NC-LPN</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Lucia Romero</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>LIC-699372</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>OH-RN</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Diego Castillo</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-01-21</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>LIC-234050</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>OH-LPN</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Jorge Torres</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>renewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>LIC-652253</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>IL-LPN</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Sofia Hernandez</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>LIC-413829</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>GA-LPN</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Jorge Torres</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>LIC-885137</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>TX-RN</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Alejandro Ruiz</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>LIC-875969</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PA-RN</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Miguel Sanchez</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>LIC-809304</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PA-LPN</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>David Morales</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>LIC-149541</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>GA-RN</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Paula Gutierrez</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>LIC-865819</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>GA-RN</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Ana Martinez</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>LIC-983072</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PA-LPN</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Elena Rodriguez</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>LIC-711927</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>GA-RN</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Diego Castillo</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-08-24</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>LIC-595214</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NY-RN</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Isabella Flores</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>LIC-317849</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>MI-RN</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Andres Vargas</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>LIC-244961</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>TX-RN</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Carlos Lopez</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>LIC-463816</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>GA-LPN</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Pedro Ramirez</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>LIC-357510</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>MI-LPN</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Paula Gutierrez</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>renewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>LIC-667648</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>GA-RN</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Laura Diaz</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>LIC-434266</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>TX-RN</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>David Morales</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>LIC-739661</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>IL-RN</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Paula Gutierrez</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>LIC-354799</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>OH-RN</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Elena Rodriguez</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-01-21</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>LIC-222127</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CA-LPN</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Sofia Hernandez</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>LIC-515365</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NY-LPN</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Carlos Lopez</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>renewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-06-01</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>LIC-143330</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>GA-RN</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Lucia Romero</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-06-06</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>LIC-283979</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CA-LPN</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Pedro Ramirez</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>renewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>LIC-251522</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>MI-RN</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Diego Castillo</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>LIC-169696</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>FL-LPN</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Camila Ortiz</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>LIC-544760</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NC-RN</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Paula Gutierrez</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>LIC-348453</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>IL-RN</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Isabella Flores</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>LIC-596847</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>MI-RN</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Fernando Reyes</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>LIC-908726</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>FL-LPN</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Andres Vargas</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>LIC-865057</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>GA-LPN</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Valentina Cruz</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>suspended</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>LIC-547573</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>FL-LPN</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Pedro Ramirez</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>LIC-754646</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NY-LPN</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Ana Martinez</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>LIC-454416</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>TX-LPN</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Jorge Torres</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>LIC-304504</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PA-LPN</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Laura Diaz</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>LIC-302227</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>OH-RN</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Camila Ortiz</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>LIC-702470</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>OH-LPN</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Pedro Ramirez</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>LIC-123107</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>NC-RN</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Lucia Romero</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>LIC-146546</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>TX-LPN</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Valentina Cruz</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>LIC-846058</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>MI-RN</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Lucia Romero</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>LIC-861357</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>MI-RN</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Maria Garcia</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>renewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>LIC-685583</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>FL-RN</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Roberto Mendoza</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-05-04</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>LIC-583765</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>FL-LPN</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Camila Ortiz</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>LIC-603672</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>NC-LPN</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Pedro Ramirez</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>suspended</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>LIC-462329</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>OH-RN</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Andres Vargas</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>LIC-466952</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>OH-LPN</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>David Morales</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>LIC-798128</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>TX-RN</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Miguel Sanchez</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2024-07-06</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>LIC-249869</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>IL-RN</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Lucia Romero</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>LIC-495795</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>PA-RN</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Maria Garcia</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>suspended</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>LIC-672270</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>GA-RN</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Miguel Sanchez</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>LIC-852452</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>NY-LPN</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Andres Vargas</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>LIC-714179</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>OH-RN</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Miguel Sanchez</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>LIC-263475</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>IL-RN</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Lucia Romero</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
       </c>
     </row>
   </sheetData>
